--- a/data/trans_dic/POLIPATOLOGIA_Lim_2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_2-Edad-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.03822076687301441</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.09157208106620557</v>
+        <v>0.09157208106620555</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.002299867976808262</v>
+        <v>0.002171428157235122</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00688889027694321</v>
+        <v>0.006052539210000796</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01624870973673768</v>
+        <v>0.01685253005424648</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02351568023704745</v>
+        <v>0.02310427516194905</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04225871319532861</v>
+        <v>0.04160833618677082</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09598898952547055</v>
+        <v>0.09543312492606355</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01360720156526691</v>
+        <v>0.01449846965493301</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02683363669091498</v>
+        <v>0.02597221953128085</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0613635091761015</v>
+        <v>0.06328047335432149</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02159285582723098</v>
+        <v>0.01966706653244661</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03203709847890517</v>
+        <v>0.03128403443041598</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09216188604782848</v>
+        <v>0.08958277215310995</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06073364768742735</v>
+        <v>0.05942562685043839</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09063802314758598</v>
+        <v>0.08954552852953905</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2057063337126848</v>
+        <v>0.2101237545114807</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03351246574400631</v>
+        <v>0.03379941457947617</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05597165233116153</v>
+        <v>0.05392018860034641</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.125175951991531</v>
+        <v>0.1272714751453177</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.04691915031282545</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.09755021257722894</v>
+        <v>0.09755021257722896</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02411801613030655</v>
+        <v>0.02523453396047961</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01845029699763763</v>
+        <v>0.01931207796521383</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03736378757222269</v>
+        <v>0.03479314257637643</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05013774635338981</v>
+        <v>0.05078862853914243</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04517881607776171</v>
+        <v>0.04731841807781682</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1061067010576151</v>
+        <v>0.1027178913715211</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04081479843454282</v>
+        <v>0.04026987031317934</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03526540761352661</v>
+        <v>0.03509174851583231</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07835936995498527</v>
+        <v>0.07863652607589974</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05404651456575669</v>
+        <v>0.05559169098061816</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04872508173710571</v>
+        <v>0.05025581207278984</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09001018416138451</v>
+        <v>0.08926682338474959</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09325290227834476</v>
+        <v>0.09588775345299375</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08676307482389364</v>
+        <v>0.08764804567406771</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1697102449217724</v>
+        <v>0.1676074719351464</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06656652168309633</v>
+        <v>0.06623874263630961</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06096353579459537</v>
+        <v>0.06071629343365593</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1187882923734149</v>
+        <v>0.1213090510014737</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04010029162140485</v>
+        <v>0.04055093251428016</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04013402262727498</v>
+        <v>0.03848493567225365</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06312023702100071</v>
+        <v>0.06214649896957464</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1309763603791709</v>
+        <v>0.1307279178495244</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08046894022650689</v>
+        <v>0.08259834569182434</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1578666017212619</v>
+        <v>0.1608422847752191</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09075691721616448</v>
+        <v>0.09122939482566783</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06577839785276605</v>
+        <v>0.06526786785707064</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.118100262974647</v>
+        <v>0.1171906913823355</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07734498724642602</v>
+        <v>0.07736844233043058</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07435350885177891</v>
+        <v>0.07499168728254624</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1096687498338996</v>
+        <v>0.1103325408182395</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1869728760286797</v>
+        <v>0.1895204626954327</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.128691499647961</v>
+        <v>0.1279716094012383</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2143859311099793</v>
+        <v>0.212314721062895</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1246226201992676</v>
+        <v>0.1269687650879946</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09571059580496073</v>
+        <v>0.09612024792125112</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1524188867837767</v>
+        <v>0.1534644340684869</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.1783170900395574</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.2372034638912434</v>
+        <v>0.2372034638912435</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.105349835377413</v>
+        <v>0.1028073230635888</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1149479030084288</v>
+        <v>0.1124987146748336</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1571459006802942</v>
+        <v>0.1560608900771563</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1962044274527112</v>
+        <v>0.192175568992701</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1869727201068846</v>
+        <v>0.1876789229204718</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2611186995451817</v>
+        <v>0.2585914513882875</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1543985075307909</v>
+        <v>0.1550497195813</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1564093302106442</v>
+        <v>0.1561300578791633</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2162084092914587</v>
+        <v>0.2183176000608515</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1653391862655222</v>
+        <v>0.160047629490721</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1690955493551038</v>
+        <v>0.1707414696164604</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2180774506876398</v>
+        <v>0.2174885583218537</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2674625704210047</v>
+        <v>0.2635334127995455</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2532828824771604</v>
+        <v>0.2519977216731058</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3116388195729777</v>
+        <v>0.3105672599507867</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2026796004747383</v>
+        <v>0.2027992004165501</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1991239389829257</v>
+        <v>0.200347745995616</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2557715490541232</v>
+        <v>0.2589881028225517</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.232968173916541</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2685625248731083</v>
+        <v>0.2685625248731084</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.454351418943721</v>
@@ -1091,7 +1091,7 @@
         <v>0.3874794863925691</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.391371619017947</v>
+        <v>0.3913716190179471</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.3591523128967664</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2186416592144499</v>
+        <v>0.2200530463091675</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1953963469055877</v>
+        <v>0.1953816974956011</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2345000001932469</v>
+        <v>0.2362832202819188</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4032789551636746</v>
+        <v>0.4087464300319649</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.344566897606281</v>
+        <v>0.3405191839823101</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3591118479876878</v>
+        <v>0.3614792836931477</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.323941679312351</v>
+        <v>0.3270034481675933</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2804801067109656</v>
+        <v>0.2801807359071976</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3067914944714453</v>
+        <v>0.307828931484652</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3085629462967951</v>
+        <v>0.3051998452197605</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.279261421976246</v>
+        <v>0.2768462825487577</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3013176723036758</v>
+        <v>0.3037292760762063</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5002923088562204</v>
+        <v>0.5024332947502693</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4374611468192023</v>
+        <v>0.435375887418887</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4219382136654233</v>
+        <v>0.4198389021414536</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3907160670894293</v>
+        <v>0.3950731656551331</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3412157049291468</v>
+        <v>0.3459913595194455</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3563488256526252</v>
+        <v>0.3540714162890539</v>
       </c>
     </row>
     <row r="19">
@@ -1209,7 +1209,7 @@
         <v>0.4378076300654115</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.3782103549088333</v>
+        <v>0.3782103549088334</v>
       </c>
     </row>
     <row r="20">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4465636121359056</v>
+        <v>0.4493727808352498</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2900616750004593</v>
+        <v>0.2842849260797125</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2478148996397874</v>
+        <v>0.2405622849000295</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5685703605229173</v>
+        <v>0.563218501840396</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4737916510794265</v>
+        <v>0.475764448717749</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4313469437376966</v>
+        <v>0.4304041800540582</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.5267461096166265</v>
+        <v>0.5314434432820072</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.402732371206598</v>
+        <v>0.4015773550691561</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3511433144353868</v>
+        <v>0.3523193191544453</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5674516505398343</v>
+        <v>0.5671868842304496</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3882803340063726</v>
+        <v>0.3907169648151375</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3200709368307282</v>
+        <v>0.3145447869626813</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6715673043846691</v>
+        <v>0.6744535359130346</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5781666606402532</v>
+        <v>0.5806563450845423</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4993240000478879</v>
+        <v>0.5026986673351409</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.6071846837212098</v>
+        <v>0.6100940360734317</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4730350044408446</v>
+        <v>0.4746494624161378</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4041946156764004</v>
+        <v>0.4032676883139456</v>
       </c>
     </row>
     <row r="22">
@@ -1309,7 +1309,7 @@
         <v>0.6298803999850702</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.6863346692881577</v>
+        <v>0.6863346692881578</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.7379662384484255</v>
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5959560470850016</v>
+        <v>0.5991290871257151</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4507474483633514</v>
+        <v>0.4554425016498601</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3896417588459493</v>
+        <v>0.3883048417401926</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7368356979387608</v>
+        <v>0.7376950796242133</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5758085754413422</v>
+        <v>0.5800081101289373</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6553512559531631</v>
+        <v>0.6493841117232042</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6998723369511073</v>
+        <v>0.6976163327258624</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5446555426359164</v>
+        <v>0.5415718571913898</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5559232354322037</v>
+        <v>0.5574204271262234</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7226440142525306</v>
+        <v>0.7209860208301888</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5645521030994141</v>
+        <v>0.5660302318962217</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4771662096635812</v>
+        <v>0.4803531275485748</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8221679245240117</v>
+        <v>0.827824175061849</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6833031785196616</v>
+        <v>0.6868643622407364</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7172959302665115</v>
+        <v>0.7175494361434323</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7738124434369842</v>
+        <v>0.7717673529977506</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6224307398078422</v>
+        <v>0.6235861242423072</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.612122932465319</v>
+        <v>0.6117185211295687</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1574230628536044</v>
+        <v>0.1571977580252807</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1371901229543218</v>
+        <v>0.1373197629726972</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1690362338059559</v>
+        <v>0.1683124216266734</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2759750294189788</v>
+        <v>0.2755867539989996</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2431519885744115</v>
+        <v>0.2411415550930993</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3091852418855027</v>
+        <v>0.3110223056112455</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.221557444366412</v>
+        <v>0.2221850620732218</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1948678771085134</v>
+        <v>0.1951342623560994</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2446091095216363</v>
+        <v>0.2447684413526258</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1849007873077533</v>
+        <v>0.1840028520501623</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1625223489518376</v>
+        <v>0.1618981543279248</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1949462068893653</v>
+        <v>0.1939322040663885</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3097135340318662</v>
+        <v>0.3084926289440859</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2739350984640687</v>
+        <v>0.2739791848419643</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3364695450114094</v>
+        <v>0.3378771573235088</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.24206427845719</v>
+        <v>0.2422663433221398</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2149532441470101</v>
+        <v>0.2150270692734065</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2636513065882695</v>
+        <v>0.2642479649790835</v>
       </c>
     </row>
     <row r="28">
@@ -1729,31 +1729,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1044</v>
+        <v>986</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2890</v>
+        <v>2539</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6626</v>
+        <v>6872</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10117</v>
+        <v>9940</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>16724</v>
+        <v>16467</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>34797</v>
+        <v>34596</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12034</v>
+        <v>12822</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>21875</v>
+        <v>21173</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>47269</v>
+        <v>48745</v>
       </c>
     </row>
     <row r="7">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9806</v>
+        <v>8932</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13438</v>
+        <v>13122</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>37583</v>
+        <v>36531</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>26129</v>
+        <v>25567</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>35870</v>
+        <v>35438</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>74571</v>
+        <v>76172</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>29638</v>
+        <v>29891</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>45629</v>
+        <v>43957</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>96424</v>
+        <v>98038</v>
       </c>
     </row>
     <row r="8">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16571</v>
+        <v>17338</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10895</v>
+        <v>11404</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>17818</v>
+        <v>16593</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>30597</v>
+        <v>30994</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>25460</v>
+        <v>26666</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>53237</v>
+        <v>51537</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>52951</v>
+        <v>52244</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>40698</v>
+        <v>40497</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>76684</v>
+        <v>76956</v>
       </c>
     </row>
     <row r="11">
@@ -1908,31 +1908,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>37135</v>
+        <v>38196</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28772</v>
+        <v>29676</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>42925</v>
+        <v>42570</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>56908</v>
+        <v>58516</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>48895</v>
+        <v>49394</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>85149</v>
+        <v>84094</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>86360</v>
+        <v>85934</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>70354</v>
+        <v>70069</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>116249</v>
+        <v>118716</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>27343</v>
+        <v>27650</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>26854</v>
+        <v>25750</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>39187</v>
+        <v>38583</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>93105</v>
+        <v>92928</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>53221</v>
+        <v>54629</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>98381</v>
+        <v>100236</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>126398</v>
+        <v>127056</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>87517</v>
+        <v>86838</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>146920</v>
+        <v>145789</v>
       </c>
     </row>
     <row r="15">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>52739</v>
+        <v>52755</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>49750</v>
+        <v>50177</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>68086</v>
+        <v>68499</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>132910</v>
+        <v>134721</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>85115</v>
+        <v>84639</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>133604</v>
+        <v>132313</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>173563</v>
+        <v>176831</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>127341</v>
+        <v>127886</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>189614</v>
+        <v>190914</v>
       </c>
     </row>
     <row r="16">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>64750</v>
+        <v>63187</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>74262</v>
+        <v>72680</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>110099</v>
+        <v>109339</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>120901</v>
+        <v>118418</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>121360</v>
+        <v>121818</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>192415</v>
+        <v>190552</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>190036</v>
+        <v>190838</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>202570</v>
+        <v>202208</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>310800</v>
+        <v>313832</v>
       </c>
     </row>
     <row r="19">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>101620</v>
+        <v>98368</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>109244</v>
+        <v>110307</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>152789</v>
+        <v>152376</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>164810</v>
+        <v>162389</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>164400</v>
+        <v>163566</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>229642</v>
+        <v>228853</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>249461</v>
+        <v>249609</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>257890</v>
+        <v>259475</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>367673</v>
+        <v>372296</v>
       </c>
     </row>
     <row r="20">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>93891</v>
+        <v>94497</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>93383</v>
+        <v>93376</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>142892</v>
+        <v>143978</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>180588</v>
+        <v>183037</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>171198</v>
+        <v>169187</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>218647</v>
+        <v>220088</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>284171</v>
+        <v>286857</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>273403</v>
+        <v>273111</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>373734</v>
+        <v>374998</v>
       </c>
     </row>
     <row r="23">
@@ -2340,31 +2340,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>132506</v>
+        <v>131062</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>133464</v>
+        <v>132310</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>183607</v>
+        <v>185076</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>224031</v>
+        <v>224990</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>217352</v>
+        <v>216316</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>256899</v>
+        <v>255621</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>342747</v>
+        <v>346570</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>332606</v>
+        <v>337261</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>434105</v>
+        <v>431331</v>
       </c>
     </row>
     <row r="24">
@@ -2449,31 +2449,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>138339</v>
+        <v>139209</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>96976</v>
+        <v>95045</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>100880</v>
+        <v>97928</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>201272</v>
+        <v>199377</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>178980</v>
+        <v>179726</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>189433</v>
+        <v>189019</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>349645</v>
+        <v>352763</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>286782</v>
+        <v>285960</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>297154</v>
+        <v>298149</v>
       </c>
     </row>
     <row r="27">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>175789</v>
+        <v>175707</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>129814</v>
+        <v>130628</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>130294</v>
+        <v>128045</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>237732</v>
+        <v>238754</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>218409</v>
+        <v>219350</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>219286</v>
+        <v>220768</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>403038</v>
+        <v>404969</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>336844</v>
+        <v>337994</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>342048</v>
+        <v>341264</v>
       </c>
     </row>
     <row r="28">
@@ -2593,31 +2593,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>148900</v>
+        <v>149693</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>115841</v>
+        <v>117048</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>120866</v>
+        <v>120451</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>286614</v>
+        <v>286948</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>230421</v>
+        <v>232101</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>304482</v>
+        <v>301710</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>447099</v>
+        <v>445658</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>357930</v>
+        <v>355903</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>430733</v>
+        <v>431893</v>
       </c>
     </row>
     <row r="31">
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>180553</v>
+        <v>180139</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>145089</v>
+        <v>145469</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>148016</v>
+        <v>149005</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>319806</v>
+        <v>322006</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>273437</v>
+        <v>274862</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>333262</v>
+        <v>333380</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>494335</v>
+        <v>493028</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>409041</v>
+        <v>409800</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>474277</v>
+        <v>473964</v>
       </c>
     </row>
     <row r="32">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>539454</v>
+        <v>538682</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>465671</v>
+        <v>466111</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>597165</v>
+        <v>594608</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>982004</v>
+        <v>980623</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>861862</v>
+        <v>854736</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1155411</v>
+        <v>1162276</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1547598</v>
+        <v>1551982</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1352167</v>
+        <v>1354016</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1778239</v>
+        <v>1779397</v>
       </c>
     </row>
     <row r="35">
@@ -2772,31 +2772,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>633614</v>
+        <v>630537</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>551658</v>
+        <v>549539</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>688699</v>
+        <v>685116</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1102056</v>
+        <v>1097712</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>970974</v>
+        <v>971131</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1257371</v>
+        <v>1262631</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1690840</v>
+        <v>1692252</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1491537</v>
+        <v>1492050</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1916670</v>
+        <v>1921008</v>
       </c>
     </row>
     <row r="36">
